--- a/结果/SVM分类/样本熵/SVM_DE_sampen.xlsx
+++ b/结果/SVM分类/样本熵/SVM_DE_sampen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\SVM分类\样本熵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1955B1C6-6FFB-4A81-8F96-C7364364EBA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD37D78-2590-4F37-80E7-CB2EF219D92E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11820" yWindow="276" windowWidth="19668" windowHeight="11148" activeTab="4" xr2:uid="{214D8CFA-0F06-4C0F-921B-64B13E0D0097}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{214D8CFA-0F06-4C0F-921B-64B13E0D0097}"/>
   </bookViews>
   <sheets>
     <sheet name="DE_sampen" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3601BC-C60D-4F4B-BF45-EAF775CAD05A}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -424,7 +428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.64375000000000004</v>
       </c>
@@ -435,7 +439,7 @@
         <v>0.66874999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.61875000000000002</v>
       </c>
@@ -446,7 +450,7 @@
         <v>0.63749999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.64375000000000004</v>
       </c>
@@ -457,7 +461,7 @@
         <v>0.58750000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.63124999999999998</v>
       </c>
@@ -468,7 +472,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.66874999999999996</v>
       </c>
@@ -479,7 +483,7 @@
         <v>0.65625</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -489,26 +493,8 @@
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.6875</v>
       </c>
@@ -518,26 +504,8 @@
       <c r="C17">
         <v>0.63749999999999996</v>
       </c>
-      <c r="E17">
-        <v>0.894737</v>
-      </c>
-      <c r="F17">
-        <v>0.71264400000000006</v>
-      </c>
-      <c r="G17">
-        <v>0.710843</v>
-      </c>
-      <c r="I17">
-        <v>0.5</v>
-      </c>
-      <c r="J17">
-        <v>0.49315100000000001</v>
-      </c>
-      <c r="K17">
-        <v>0.55844199999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.63124999999999998</v>
       </c>
@@ -547,26 +515,8 @@
       <c r="C18">
         <v>0.63124999999999998</v>
       </c>
-      <c r="E18">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="F18">
-        <v>0.759494</v>
-      </c>
-      <c r="G18">
-        <v>0.81578899999999999</v>
-      </c>
-      <c r="I18">
-        <v>0.58571399999999996</v>
-      </c>
-      <c r="J18">
-        <v>0.51851899999999995</v>
-      </c>
-      <c r="K18">
-        <v>0.46428599999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.61875000000000002</v>
       </c>
@@ -576,26 +526,8 @@
       <c r="C19">
         <v>0.6875</v>
       </c>
-      <c r="E19">
-        <v>0.78082200000000002</v>
-      </c>
-      <c r="F19">
-        <v>0.78749999999999998</v>
-      </c>
-      <c r="G19">
-        <v>0.9</v>
-      </c>
-      <c r="I19">
-        <v>0.48275899999999999</v>
-      </c>
-      <c r="J19">
-        <v>0.53749999999999998</v>
-      </c>
-      <c r="K19">
-        <v>0.47499999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.63749999999999996</v>
       </c>
@@ -605,26 +537,8 @@
       <c r="C20">
         <v>0.65625</v>
       </c>
-      <c r="E20">
-        <v>0.83333299999999999</v>
-      </c>
-      <c r="F20">
-        <v>0.90476199999999996</v>
-      </c>
-      <c r="G20">
-        <v>0.77907000000000004</v>
-      </c>
-      <c r="I20">
-        <v>0.45122000000000001</v>
-      </c>
-      <c r="J20">
-        <v>0.486842</v>
-      </c>
-      <c r="K20">
-        <v>0.51351400000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.6875</v>
       </c>
@@ -634,23 +548,129 @@
       <c r="C21">
         <v>0.63124999999999998</v>
       </c>
-      <c r="E21">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.894737</v>
+      </c>
+      <c r="B24">
+        <v>0.71264400000000006</v>
+      </c>
+      <c r="C24">
+        <v>0.710843</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="B25">
+        <v>0.759494</v>
+      </c>
+      <c r="C25">
+        <v>0.81578899999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.78082200000000002</v>
+      </c>
+      <c r="B26">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="C26">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="B27">
+        <v>0.90476199999999996</v>
+      </c>
+      <c r="C27">
+        <v>0.77907000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>0.79518100000000003</v>
       </c>
-      <c r="F21">
+      <c r="B28">
         <v>0.78571400000000002</v>
       </c>
-      <c r="G21">
+      <c r="C28">
         <v>0.77333300000000005</v>
       </c>
-      <c r="I21">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.5</v>
+      </c>
+      <c r="B31">
+        <v>0.49315100000000001</v>
+      </c>
+      <c r="C31">
+        <v>0.55844199999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.58571399999999996</v>
+      </c>
+      <c r="B32">
+        <v>0.51851899999999995</v>
+      </c>
+      <c r="C32">
+        <v>0.46428599999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.48275899999999999</v>
+      </c>
+      <c r="B33">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="C33">
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.45122000000000001</v>
+      </c>
+      <c r="B34">
+        <v>0.486842</v>
+      </c>
+      <c r="C34">
+        <v>0.51351400000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>0.57142899999999996</v>
       </c>
-      <c r="J21">
+      <c r="B35">
         <v>0.43333300000000002</v>
       </c>
-      <c r="K21">
+      <c r="C35">
         <v>0.50588200000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <f>AVERAGE(A17:A35)</f>
+        <v>0.65495746666666654</v>
+      </c>
+      <c r="B36" s="1">
+        <f>AVERAGE(B17:B35)</f>
+        <v>0.64171393333333326</v>
+      </c>
+      <c r="C36" s="1">
+        <f>AVERAGE(C17:C35)</f>
+        <v>0.64932726666666674</v>
       </c>
     </row>
   </sheetData>
@@ -662,15 +682,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BF495A-BA9F-46BA-9009-6D8AE31A3D44}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -681,7 +701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.88124999999999998</v>
       </c>
@@ -692,7 +712,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.85624999999999996</v>
       </c>
@@ -703,7 +723,7 @@
         <v>0.85624999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.94374999999999998</v>
       </c>
@@ -714,7 +734,7 @@
         <v>0.86875000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.9</v>
       </c>
@@ -725,7 +745,7 @@
         <v>0.86875000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.82499999999999996</v>
       </c>
@@ -736,7 +756,7 @@
         <v>0.90625</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -746,26 +766,8 @@
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.90625</v>
       </c>
@@ -775,26 +777,8 @@
       <c r="C17">
         <v>0.89375000000000004</v>
       </c>
-      <c r="E17">
-        <v>0.93023299999999998</v>
-      </c>
-      <c r="F17">
-        <v>0.89873400000000003</v>
-      </c>
-      <c r="G17">
-        <v>0.91139199999999998</v>
-      </c>
-      <c r="I17">
-        <v>0.87837799999999999</v>
-      </c>
-      <c r="J17">
-        <v>0.82716000000000001</v>
-      </c>
-      <c r="K17">
-        <v>0.87654299999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.88749999999999996</v>
       </c>
@@ -804,26 +788,8 @@
       <c r="C18">
         <v>0.86875000000000002</v>
       </c>
-      <c r="E18">
-        <v>0.88749999999999996</v>
-      </c>
-      <c r="F18">
-        <v>0.93975900000000001</v>
-      </c>
-      <c r="G18">
-        <v>0.90361400000000003</v>
-      </c>
-      <c r="I18">
-        <v>0.88749999999999996</v>
-      </c>
-      <c r="J18">
-        <v>0.80519499999999999</v>
-      </c>
-      <c r="K18">
-        <v>0.83116900000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.85</v>
       </c>
@@ -833,26 +799,8 @@
       <c r="C19">
         <v>0.88124999999999998</v>
       </c>
-      <c r="E19">
-        <v>0.89743600000000001</v>
-      </c>
-      <c r="F19">
-        <v>0.95121999999999995</v>
-      </c>
-      <c r="G19">
-        <v>0.92105300000000001</v>
-      </c>
-      <c r="I19">
-        <v>0.80487799999999998</v>
-      </c>
-      <c r="J19">
-        <v>0.91025599999999995</v>
-      </c>
-      <c r="K19">
-        <v>0.84523800000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.85624999999999996</v>
       </c>
@@ -862,26 +810,8 @@
       <c r="C20">
         <v>0.9</v>
       </c>
-      <c r="E20">
-        <v>0.87058800000000003</v>
-      </c>
-      <c r="F20">
-        <v>0.92405099999999996</v>
-      </c>
-      <c r="G20">
-        <v>0.94936699999999996</v>
-      </c>
-      <c r="I20">
-        <v>0.84</v>
-      </c>
-      <c r="J20">
-        <v>0.82716000000000001</v>
-      </c>
-      <c r="K20">
-        <v>0.85185200000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.9</v>
       </c>
@@ -891,23 +821,129 @@
       <c r="C21">
         <v>0.86250000000000004</v>
       </c>
-      <c r="E21">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.93023299999999998</v>
+      </c>
+      <c r="B24">
+        <v>0.89873400000000003</v>
+      </c>
+      <c r="C24">
+        <v>0.91139199999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="B25">
+        <v>0.93975900000000001</v>
+      </c>
+      <c r="C25">
+        <v>0.90361400000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.89743600000000001</v>
+      </c>
+      <c r="B26">
+        <v>0.95121999999999995</v>
+      </c>
+      <c r="C26">
+        <v>0.92105300000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.87058800000000003</v>
+      </c>
+      <c r="B27">
+        <v>0.92405099999999996</v>
+      </c>
+      <c r="C27">
+        <v>0.94936699999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>0.971831</v>
       </c>
-      <c r="F21">
+      <c r="B28">
         <v>0.85714299999999999</v>
       </c>
-      <c r="G21">
+      <c r="C28">
         <v>0.89156599999999997</v>
       </c>
-      <c r="I21">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.87837799999999999</v>
+      </c>
+      <c r="B31">
+        <v>0.82716000000000001</v>
+      </c>
+      <c r="C31">
+        <v>0.87654299999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="B32">
+        <v>0.80519499999999999</v>
+      </c>
+      <c r="C32">
+        <v>0.83116900000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.80487799999999998</v>
+      </c>
+      <c r="B33">
+        <v>0.91025599999999995</v>
+      </c>
+      <c r="C33">
+        <v>0.84523800000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.84</v>
+      </c>
+      <c r="B34">
+        <v>0.82716000000000001</v>
+      </c>
+      <c r="C34">
+        <v>0.85185200000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>0.84269700000000003</v>
       </c>
-      <c r="J21">
+      <c r="B35">
         <v>0.87951800000000002</v>
       </c>
-      <c r="K21">
+      <c r="C35">
         <v>0.83116900000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <f>AVERAGE(A17:A35)</f>
+        <v>0.88073606666666671</v>
+      </c>
+      <c r="B36" s="1">
+        <f>AVERAGE(B17:B35)</f>
+        <v>0.88217973333333333</v>
+      </c>
+      <c r="C36" s="1">
+        <f>AVERAGE(C17:C35)</f>
+        <v>0.88128086666666638</v>
       </c>
     </row>
   </sheetData>
@@ -918,10 +954,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2770D3A-C5F6-44D2-AEA6-666DC9B97B13}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.78749999999999998</v>
       </c>
@@ -1031,26 +1067,8 @@
       <c r="C17">
         <v>0.75624999999999998</v>
       </c>
-      <c r="E17">
-        <v>0.83720899999999998</v>
-      </c>
-      <c r="F17">
-        <v>0.90697700000000003</v>
-      </c>
-      <c r="G17">
-        <v>0.86206899999999997</v>
-      </c>
-      <c r="I17">
-        <v>0.72972999999999999</v>
-      </c>
-      <c r="J17">
-        <v>0.72972999999999999</v>
-      </c>
-      <c r="K17">
-        <v>0.63013699999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.81874999999999998</v>
       </c>
@@ -1060,26 +1078,8 @@
       <c r="C18">
         <v>0.8</v>
       </c>
-      <c r="E18">
-        <v>0.87341800000000003</v>
-      </c>
-      <c r="F18">
-        <v>0.82716000000000001</v>
-      </c>
-      <c r="G18">
-        <v>0.94285699999999995</v>
-      </c>
-      <c r="I18">
-        <v>0.765432</v>
-      </c>
-      <c r="J18">
-        <v>0.632911</v>
-      </c>
-      <c r="K18">
-        <v>0.68888899999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.78749999999999998</v>
       </c>
@@ -1089,26 +1089,8 @@
       <c r="C19">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E19">
-        <v>0.92592600000000003</v>
-      </c>
-      <c r="F19">
-        <v>0.90540500000000002</v>
-      </c>
-      <c r="G19">
-        <v>0.86585400000000001</v>
-      </c>
-      <c r="I19">
-        <v>0.64556999999999998</v>
-      </c>
-      <c r="J19">
-        <v>0.62790699999999999</v>
-      </c>
-      <c r="K19">
-        <v>0.67948699999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.78125</v>
       </c>
@@ -1118,26 +1100,8 @@
       <c r="C20">
         <v>0.81874999999999998</v>
       </c>
-      <c r="E20">
-        <v>0.91025599999999995</v>
-      </c>
-      <c r="F20">
-        <v>0.86666699999999997</v>
-      </c>
-      <c r="G20">
-        <v>0.86666699999999997</v>
-      </c>
-      <c r="I20">
-        <v>0.65853700000000004</v>
-      </c>
-      <c r="J20">
-        <v>0.77647100000000002</v>
-      </c>
-      <c r="K20">
-        <v>0.75714300000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.8125</v>
       </c>
@@ -1147,23 +1111,129 @@
       <c r="C21">
         <v>0.84375</v>
       </c>
-      <c r="E21">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.83720899999999998</v>
+      </c>
+      <c r="B24">
+        <v>0.90697700000000003</v>
+      </c>
+      <c r="C24">
+        <v>0.86206899999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.87341800000000003</v>
+      </c>
+      <c r="B25">
+        <v>0.82716000000000001</v>
+      </c>
+      <c r="C25">
+        <v>0.94285699999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.92592600000000003</v>
+      </c>
+      <c r="B26">
+        <v>0.90540500000000002</v>
+      </c>
+      <c r="C26">
+        <v>0.86585400000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.91025599999999995</v>
+      </c>
+      <c r="B27">
+        <v>0.86666699999999997</v>
+      </c>
+      <c r="C27">
+        <v>0.86666699999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>0.92105300000000001</v>
       </c>
-      <c r="F21">
+      <c r="B28">
         <v>0.94047599999999998</v>
       </c>
-      <c r="G21">
+      <c r="C28">
         <v>0.92957699999999999</v>
       </c>
-      <c r="I21">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.72972999999999999</v>
+      </c>
+      <c r="B31">
+        <v>0.72972999999999999</v>
+      </c>
+      <c r="C31">
+        <v>0.63013699999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.765432</v>
+      </c>
+      <c r="B32">
+        <v>0.632911</v>
+      </c>
+      <c r="C32">
+        <v>0.68888899999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.64556999999999998</v>
+      </c>
+      <c r="B33">
+        <v>0.62790699999999999</v>
+      </c>
+      <c r="C33">
+        <v>0.67948699999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.65853700000000004</v>
+      </c>
+      <c r="B34">
+        <v>0.77647100000000002</v>
+      </c>
+      <c r="C34">
+        <v>0.75714300000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>0.71428599999999998</v>
       </c>
-      <c r="J21">
+      <c r="B35">
         <v>0.763158</v>
       </c>
-      <c r="K21">
+      <c r="C35">
         <v>0.775281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <f>AVERAGE(A17:A35)</f>
+        <v>0.79792780000000008</v>
+      </c>
+      <c r="B36" s="1">
+        <f>AVERAGE(B17:B35)</f>
+        <v>0.79762413333333337</v>
+      </c>
+      <c r="C36" s="1">
+        <f>AVERAGE(C17:C35)</f>
+        <v>0.79944739999999981</v>
       </c>
     </row>
   </sheetData>
@@ -1174,15 +1244,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02381B48-911C-44BE-A8BD-0D81F9F91B66}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1193,7 +1263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.58125000000000004</v>
       </c>
@@ -1204,7 +1274,7 @@
         <v>0.66249999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.60624999999999996</v>
       </c>
@@ -1215,7 +1285,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.73124999999999996</v>
       </c>
@@ -1226,7 +1296,7 @@
         <v>0.61875000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.65</v>
       </c>
@@ -1237,7 +1307,7 @@
         <v>0.66874999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.65625</v>
       </c>
@@ -1248,7 +1318,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1258,26 +1328,8 @@
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.59375</v>
       </c>
@@ -1287,26 +1339,8 @@
       <c r="C17">
         <v>0.72499999999999998</v>
       </c>
-      <c r="E17">
-        <v>0.61643800000000004</v>
-      </c>
-      <c r="F17">
-        <v>0.69411800000000001</v>
-      </c>
-      <c r="G17">
-        <v>0.65432100000000004</v>
-      </c>
-      <c r="I17">
-        <v>0.57471300000000003</v>
-      </c>
-      <c r="J17">
-        <v>0.54666700000000001</v>
-      </c>
-      <c r="K17">
-        <v>0.79746799999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.68125000000000002</v>
       </c>
@@ -1316,26 +1350,8 @@
       <c r="C18">
         <v>0.55625000000000002</v>
       </c>
-      <c r="E18">
-        <v>0.70512799999999998</v>
-      </c>
-      <c r="F18">
-        <v>0.64634100000000005</v>
-      </c>
-      <c r="G18">
-        <v>0.56626500000000002</v>
-      </c>
-      <c r="I18">
-        <v>0.65853700000000004</v>
-      </c>
-      <c r="J18">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="K18">
-        <v>0.54545500000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.66249999999999998</v>
       </c>
@@ -1345,26 +1361,8 @@
       <c r="C19">
         <v>0.64375000000000004</v>
       </c>
-      <c r="E19">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="F19">
-        <v>0.64102599999999998</v>
-      </c>
-      <c r="G19">
-        <v>0.73239399999999999</v>
-      </c>
-      <c r="I19">
-        <v>0.65714300000000003</v>
-      </c>
-      <c r="J19">
-        <v>0.59756100000000001</v>
-      </c>
-      <c r="K19">
-        <v>0.57303400000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.65</v>
       </c>
@@ -1374,26 +1372,8 @@
       <c r="C20">
         <v>0.61875000000000002</v>
       </c>
-      <c r="E20">
-        <v>0.644737</v>
-      </c>
-      <c r="F20">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G20">
-        <v>0.62162200000000001</v>
-      </c>
-      <c r="I20">
-        <v>0.65476199999999996</v>
-      </c>
-      <c r="J20">
-        <v>0.66249999999999998</v>
-      </c>
-      <c r="K20">
-        <v>0.61627900000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.59375</v>
       </c>
@@ -1403,23 +1383,129 @@
       <c r="C21">
         <v>0.66249999999999998</v>
       </c>
-      <c r="E21">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.61643800000000004</v>
+      </c>
+      <c r="B24">
+        <v>0.69411800000000001</v>
+      </c>
+      <c r="C24">
+        <v>0.65432100000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.70512799999999998</v>
+      </c>
+      <c r="B25">
+        <v>0.64634100000000005</v>
+      </c>
+      <c r="C25">
+        <v>0.56626500000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="B26">
+        <v>0.64102599999999998</v>
+      </c>
+      <c r="C26">
+        <v>0.73239399999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.644737</v>
+      </c>
+      <c r="B27">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C27">
+        <v>0.62162200000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>0.53012000000000004</v>
       </c>
-      <c r="F21">
+      <c r="B28">
         <v>0.70666700000000005</v>
       </c>
-      <c r="G21">
+      <c r="C28">
         <v>0.63736300000000001</v>
       </c>
-      <c r="I21">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.57471300000000003</v>
+      </c>
+      <c r="B31">
+        <v>0.54666700000000001</v>
+      </c>
+      <c r="C31">
+        <v>0.79746799999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.65853700000000004</v>
+      </c>
+      <c r="B32">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="C32">
+        <v>0.54545500000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.65714300000000003</v>
+      </c>
+      <c r="B33">
+        <v>0.59756100000000001</v>
+      </c>
+      <c r="C33">
+        <v>0.57303400000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.65476199999999996</v>
+      </c>
+      <c r="B34">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="C34">
+        <v>0.61627900000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>0.66233799999999998</v>
       </c>
-      <c r="J21">
+      <c r="B35">
         <v>0.69411800000000001</v>
       </c>
-      <c r="K21">
+      <c r="C35">
         <v>0.69565200000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <f>AVERAGE(A17:A35)</f>
+        <v>0.63678886666666668</v>
+      </c>
+      <c r="B36" s="1">
+        <f>AVERAGE(B17:B35)</f>
+        <v>0.64079433333333335</v>
+      </c>
+      <c r="C36" s="1">
+        <f>AVERAGE(C17:C35)</f>
+        <v>0.6430735333333335</v>
       </c>
     </row>
   </sheetData>
@@ -1430,15 +1516,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEC7F0A-6E4E-4330-BAA4-9C79BF602398}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1449,7 +1535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.61250000000000004</v>
       </c>
@@ -1460,7 +1546,7 @@
         <v>0.54374999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.56874999999999998</v>
       </c>
@@ -1471,7 +1557,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.54374999999999996</v>
       </c>
@@ -1482,7 +1568,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.50624999999999998</v>
       </c>
@@ -1493,7 +1579,7 @@
         <v>0.61875000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.59375</v>
       </c>
@@ -1504,7 +1590,7 @@
         <v>0.48749999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>AVERAGE(A2:A6)</f>
         <v>0.56499999999999995</v>
@@ -1519,7 +1605,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1529,26 +1615,8 @@
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.55625000000000002</v>
       </c>
@@ -1558,26 +1626,8 @@
       <c r="C17">
         <v>0.5625</v>
       </c>
-      <c r="E17">
-        <v>0.38888899999999998</v>
-      </c>
-      <c r="F17">
-        <v>0.56756799999999996</v>
-      </c>
-      <c r="G17">
-        <v>0.54054100000000005</v>
-      </c>
-      <c r="I17">
-        <v>0.77142900000000003</v>
-      </c>
-      <c r="J17">
-        <v>0.53488400000000003</v>
-      </c>
-      <c r="K17">
-        <v>0.581395</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.57499999999999996</v>
       </c>
@@ -1587,26 +1637,8 @@
       <c r="C18">
         <v>0.59375</v>
       </c>
-      <c r="E18">
-        <v>0.50602400000000003</v>
-      </c>
-      <c r="F18">
-        <v>0.467532</v>
-      </c>
-      <c r="G18">
-        <v>0.50684899999999999</v>
-      </c>
-      <c r="I18">
-        <v>0.64935100000000001</v>
-      </c>
-      <c r="J18">
-        <v>0.60241</v>
-      </c>
-      <c r="K18">
-        <v>0.66666700000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.52500000000000002</v>
       </c>
@@ -1616,26 +1648,8 @@
       <c r="C19">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E19">
-        <v>0.41558400000000001</v>
-      </c>
-      <c r="F19">
-        <v>0.52439000000000002</v>
-      </c>
-      <c r="G19">
-        <v>0.48148099999999999</v>
-      </c>
-      <c r="I19">
-        <v>0.62650600000000001</v>
-      </c>
-      <c r="J19">
-        <v>0.67948699999999995</v>
-      </c>
-      <c r="K19">
-        <v>0.62025300000000005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.55625000000000002</v>
       </c>
@@ -1645,26 +1659,8 @@
       <c r="C20">
         <v>0.53749999999999998</v>
       </c>
-      <c r="E20">
-        <v>0.56527099999999997</v>
-      </c>
-      <c r="F20">
-        <v>0.36904799999999999</v>
-      </c>
-      <c r="G20">
-        <v>0.488095</v>
-      </c>
-      <c r="I20">
-        <v>0.54945100000000002</v>
-      </c>
-      <c r="J20">
-        <v>0.631579</v>
-      </c>
-      <c r="K20">
-        <v>0.59210499999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.56874999999999998</v>
       </c>
@@ -1674,23 +1670,129 @@
       <c r="C21">
         <v>0.56874999999999998</v>
       </c>
-      <c r="E21">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.38888899999999998</v>
+      </c>
+      <c r="B25">
+        <v>0.56756799999999996</v>
+      </c>
+      <c r="C25">
+        <v>0.54054100000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.50602400000000003</v>
+      </c>
+      <c r="B26">
+        <v>0.467532</v>
+      </c>
+      <c r="C26">
+        <v>0.50684899999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.41558400000000001</v>
+      </c>
+      <c r="B27">
+        <v>0.52439000000000002</v>
+      </c>
+      <c r="C27">
+        <v>0.48148099999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.56527099999999997</v>
+      </c>
+      <c r="B28">
+        <v>0.36904799999999999</v>
+      </c>
+      <c r="C28">
+        <v>0.488095</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>0.469136</v>
       </c>
-      <c r="F21">
+      <c r="B29">
         <v>0.46988000000000002</v>
       </c>
-      <c r="G21">
+      <c r="C29">
         <v>0.42045500000000002</v>
       </c>
-      <c r="I21">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.77142900000000003</v>
+      </c>
+      <c r="B32">
+        <v>0.53488400000000003</v>
+      </c>
+      <c r="C32">
+        <v>0.581395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.64935100000000001</v>
+      </c>
+      <c r="B33">
+        <v>0.60241</v>
+      </c>
+      <c r="C33">
+        <v>0.66666700000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.62650600000000001</v>
+      </c>
+      <c r="B34">
+        <v>0.67948699999999995</v>
+      </c>
+      <c r="C34">
+        <v>0.62025300000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.54945100000000002</v>
+      </c>
+      <c r="B35">
+        <v>0.631579</v>
+      </c>
+      <c r="C35">
+        <v>0.59210499999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>0.67088599999999998</v>
       </c>
-      <c r="J21">
+      <c r="B36">
         <v>0.72727299999999995</v>
       </c>
-      <c r="K21">
+      <c r="C36">
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>AVERAGE(A17:A36)</f>
+        <v>0.55958513333333337</v>
+      </c>
+      <c r="B37" s="1">
+        <f>AVERAGE(B17:B36)</f>
+        <v>0.55660339999999997</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C17:C36)</f>
+        <v>0.5640227333333333</v>
       </c>
     </row>
   </sheetData>

--- a/结果/SVM分类/样本熵/SVM_DE_sampen.xlsx
+++ b/结果/SVM分类/样本熵/SVM_DE_sampen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\SVM分类\样本熵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD37D78-2590-4F37-80E7-CB2EF219D92E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADD9493-C85A-415B-824A-B38B6F200D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{214D8CFA-0F06-4C0F-921B-64B13E0D0097}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{214D8CFA-0F06-4C0F-921B-64B13E0D0097}"/>
   </bookViews>
   <sheets>
     <sheet name="DE_sampen" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="DE_sampen_d2" sheetId="3" r:id="rId3"/>
     <sheet name="DE_sampen_d3" sheetId="4" r:id="rId4"/>
     <sheet name="DE_sampen_d4" sheetId="5" r:id="rId5"/>
+    <sheet name="DE_sampen_multi_attri" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,7 +425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3601BC-C60D-4F4B-BF45-EAF775CAD05A}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -1799,4 +1813,211 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF693018-39DF-46F6-B676-307ECC793638}">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>92.5</v>
+      </c>
+      <c r="B2">
+        <v>91.25</v>
+      </c>
+      <c r="C2">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>86.875</v>
+      </c>
+      <c r="B4">
+        <v>82.432400000000001</v>
+      </c>
+      <c r="C4">
+        <v>90.697699999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>90.625</v>
+      </c>
+      <c r="B6">
+        <v>92.207800000000006</v>
+      </c>
+      <c r="C6">
+        <v>89.156599999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>88.75</v>
+      </c>
+      <c r="B8">
+        <v>88.235299999999995</v>
+      </c>
+      <c r="C8">
+        <v>89.333299999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>89.375</v>
+      </c>
+      <c r="B10">
+        <v>88.095200000000006</v>
+      </c>
+      <c r="C10">
+        <v>90.789500000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>84.375</v>
+      </c>
+      <c r="B15">
+        <v>83.333299999999994</v>
+      </c>
+      <c r="C15">
+        <v>85.365899999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>91.25</v>
+      </c>
+      <c r="B17">
+        <v>84.415599999999998</v>
+      </c>
+      <c r="C17">
+        <v>97.590400000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>89.375</v>
+      </c>
+      <c r="B19">
+        <v>90.909099999999995</v>
+      </c>
+      <c r="C19">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>92.5</v>
+      </c>
+      <c r="B21">
+        <v>91.764700000000005</v>
+      </c>
+      <c r="C21">
+        <v>93.333299999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>90</v>
+      </c>
+      <c r="B23">
+        <v>93.055599999999998</v>
+      </c>
+      <c r="C23">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>86.25</v>
+      </c>
+      <c r="B28">
+        <v>84.146299999999997</v>
+      </c>
+      <c r="C28">
+        <v>88.461500000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>88.75</v>
+      </c>
+      <c r="B30">
+        <v>86.813199999999995</v>
+      </c>
+      <c r="C30">
+        <v>91.304299999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>91.875</v>
+      </c>
+      <c r="B32">
+        <v>91.549300000000002</v>
+      </c>
+      <c r="C32">
+        <v>92.134799999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>88.75</v>
+      </c>
+      <c r="B34">
+        <v>85.185199999999995</v>
+      </c>
+      <c r="C34">
+        <v>92.405100000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>90.625</v>
+      </c>
+      <c r="B36">
+        <v>94.666700000000006</v>
+      </c>
+      <c r="C36">
+        <v>87.058800000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>89.458333333333329</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>88.537313333333316</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>90.425413333333339</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/结果/SVM分类/样本熵/SVM_DE_sampen.xlsx
+++ b/结果/SVM分类/样本熵/SVM_DE_sampen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\SVM分类\样本熵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADD9493-C85A-415B-824A-B38B6F200D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADDB6E0-5C67-411B-93E3-5CCF4E18E9AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{214D8CFA-0F06-4C0F-921B-64B13E0D0097}"/>
+    <workbookView xWindow="12744" yWindow="132" windowWidth="13620" windowHeight="12360" firstSheet="4" activeTab="5" xr2:uid="{214D8CFA-0F06-4C0F-921B-64B13E0D0097}"/>
   </bookViews>
   <sheets>
     <sheet name="DE_sampen" sheetId="1" r:id="rId1"/>
@@ -423,15 +423,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3601BC-C60D-4F4B-BF45-EAF775CAD05A}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -442,7 +442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.64375000000000004</v>
       </c>
@@ -453,7 +453,7 @@
         <v>0.66874999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.61875000000000002</v>
       </c>
@@ -464,7 +464,7 @@
         <v>0.63749999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.64375000000000004</v>
       </c>
@@ -475,7 +475,7 @@
         <v>0.58750000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.63124999999999998</v>
       </c>
@@ -486,7 +486,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.66874999999999996</v>
       </c>
@@ -497,7 +497,7 @@
         <v>0.65625</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -507,8 +507,26 @@
       <c r="C16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.6875</v>
       </c>
@@ -518,8 +536,26 @@
       <c r="C17">
         <v>0.63749999999999996</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>0.894737</v>
+      </c>
+      <c r="F17">
+        <v>0.71264400000000006</v>
+      </c>
+      <c r="G17">
+        <v>0.710843</v>
+      </c>
+      <c r="I17">
+        <v>0.5</v>
+      </c>
+      <c r="J17">
+        <v>0.49315100000000001</v>
+      </c>
+      <c r="K17">
+        <v>0.55844199999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.63124999999999998</v>
       </c>
@@ -529,8 +565,26 @@
       <c r="C18">
         <v>0.63124999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="F18">
+        <v>0.759494</v>
+      </c>
+      <c r="G18">
+        <v>0.81578899999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.58571399999999996</v>
+      </c>
+      <c r="J18">
+        <v>0.51851899999999995</v>
+      </c>
+      <c r="K18">
+        <v>0.46428599999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.61875000000000002</v>
       </c>
@@ -540,8 +594,26 @@
       <c r="C19">
         <v>0.6875</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>0.78082200000000002</v>
+      </c>
+      <c r="F19">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="G19">
+        <v>0.9</v>
+      </c>
+      <c r="I19">
+        <v>0.48275899999999999</v>
+      </c>
+      <c r="J19">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="K19">
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.63749999999999996</v>
       </c>
@@ -551,8 +623,26 @@
       <c r="C20">
         <v>0.65625</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="F20">
+        <v>0.90476199999999996</v>
+      </c>
+      <c r="G20">
+        <v>0.77907000000000004</v>
+      </c>
+      <c r="I20">
+        <v>0.45122000000000001</v>
+      </c>
+      <c r="J20">
+        <v>0.486842</v>
+      </c>
+      <c r="K20">
+        <v>0.51351400000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.6875</v>
       </c>
@@ -562,130 +652,43 @@
       <c r="C21">
         <v>0.63124999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0.894737</v>
-      </c>
-      <c r="B24">
-        <v>0.71264400000000006</v>
-      </c>
-      <c r="C24">
-        <v>0.710843</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="B25">
-        <v>0.759494</v>
-      </c>
-      <c r="C25">
-        <v>0.81578899999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>0.78082200000000002</v>
-      </c>
-      <c r="B26">
-        <v>0.78749999999999998</v>
-      </c>
-      <c r="C26">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>0.79518100000000003</v>
+      </c>
+      <c r="F21">
+        <v>0.78571400000000002</v>
+      </c>
+      <c r="G21">
+        <v>0.77333300000000005</v>
+      </c>
+      <c r="I21">
+        <v>0.57142899999999996</v>
+      </c>
+      <c r="J21">
+        <v>0.43333300000000002</v>
+      </c>
+      <c r="K21">
+        <v>0.50588200000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.83333299999999999</v>
-      </c>
-      <c r="B27">
-        <v>0.90476199999999996</v>
-      </c>
-      <c r="C27">
-        <v>0.77907000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>0.79518100000000003</v>
-      </c>
-      <c r="B28">
-        <v>0.78571400000000002</v>
-      </c>
-      <c r="C28">
-        <v>0.77333300000000005</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>0.5</v>
-      </c>
-      <c r="B31">
-        <v>0.49315100000000001</v>
-      </c>
-      <c r="C31">
-        <v>0.55844199999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>0.58571399999999996</v>
-      </c>
-      <c r="B32">
-        <v>0.51851899999999995</v>
-      </c>
-      <c r="C32">
-        <v>0.46428599999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>0.48275899999999999</v>
-      </c>
-      <c r="B33">
-        <v>0.53749999999999998</v>
-      </c>
-      <c r="C33">
-        <v>0.47499999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>0.45122000000000001</v>
-      </c>
-      <c r="B34">
-        <v>0.486842</v>
-      </c>
-      <c r="C34">
-        <v>0.51351400000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>0.57142899999999996</v>
-      </c>
-      <c r="B35">
-        <v>0.43333300000000002</v>
-      </c>
-      <c r="C35">
-        <v>0.50588200000000005</v>
+        <f>AVERAGE(A17:C21)</f>
+        <v>0.64749999999999985</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E17:G21)</f>
+        <v>0.79332593333333346</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I17:K21)</f>
+        <v>0.50517273333333335</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <f>AVERAGE(A17:A35)</f>
-        <v>0.65495746666666654</v>
-      </c>
-      <c r="B36" s="1">
-        <f>AVERAGE(B17:B35)</f>
-        <v>0.64171393333333326</v>
-      </c>
-      <c r="C36" s="1">
-        <f>AVERAGE(C17:C35)</f>
-        <v>0.64932726666666674</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -696,15 +699,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BF495A-BA9F-46BA-9009-6D8AE31A3D44}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -715,7 +718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.88124999999999998</v>
       </c>
@@ -726,7 +729,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.85624999999999996</v>
       </c>
@@ -737,7 +740,7 @@
         <v>0.85624999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.94374999999999998</v>
       </c>
@@ -748,7 +751,7 @@
         <v>0.86875000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.9</v>
       </c>
@@ -759,7 +762,7 @@
         <v>0.86875000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.82499999999999996</v>
       </c>
@@ -770,7 +773,7 @@
         <v>0.90625</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -780,8 +783,26 @@
       <c r="C16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.90625</v>
       </c>
@@ -791,8 +812,26 @@
       <c r="C17">
         <v>0.89375000000000004</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>0.93023299999999998</v>
+      </c>
+      <c r="F17">
+        <v>0.89873400000000003</v>
+      </c>
+      <c r="G17">
+        <v>0.91139199999999998</v>
+      </c>
+      <c r="I17">
+        <v>0.87837799999999999</v>
+      </c>
+      <c r="J17">
+        <v>0.82716000000000001</v>
+      </c>
+      <c r="K17">
+        <v>0.87654299999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.88749999999999996</v>
       </c>
@@ -802,8 +841,26 @@
       <c r="C18">
         <v>0.86875000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="F18">
+        <v>0.93975900000000001</v>
+      </c>
+      <c r="G18">
+        <v>0.90361400000000003</v>
+      </c>
+      <c r="I18">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="J18">
+        <v>0.80519499999999999</v>
+      </c>
+      <c r="K18">
+        <v>0.83116900000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.85</v>
       </c>
@@ -813,8 +870,26 @@
       <c r="C19">
         <v>0.88124999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>0.89743600000000001</v>
+      </c>
+      <c r="F19">
+        <v>0.95121999999999995</v>
+      </c>
+      <c r="G19">
+        <v>0.92105300000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.80487799999999998</v>
+      </c>
+      <c r="J19">
+        <v>0.91025599999999995</v>
+      </c>
+      <c r="K19">
+        <v>0.84523800000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.85624999999999996</v>
       </c>
@@ -824,8 +899,26 @@
       <c r="C20">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>0.87058800000000003</v>
+      </c>
+      <c r="F20">
+        <v>0.92405099999999996</v>
+      </c>
+      <c r="G20">
+        <v>0.94936699999999996</v>
+      </c>
+      <c r="I20">
+        <v>0.84</v>
+      </c>
+      <c r="J20">
+        <v>0.82716000000000001</v>
+      </c>
+      <c r="K20">
+        <v>0.85185200000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.9</v>
       </c>
@@ -835,130 +928,43 @@
       <c r="C21">
         <v>0.86250000000000004</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0.93023299999999998</v>
-      </c>
-      <c r="B24">
-        <v>0.89873400000000003</v>
-      </c>
-      <c r="C24">
-        <v>0.91139199999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>0.88749999999999996</v>
-      </c>
-      <c r="B25">
-        <v>0.93975900000000001</v>
-      </c>
-      <c r="C25">
-        <v>0.90361400000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>0.89743600000000001</v>
-      </c>
-      <c r="B26">
-        <v>0.95121999999999995</v>
-      </c>
-      <c r="C26">
-        <v>0.92105300000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>0.971831</v>
+      </c>
+      <c r="F21">
+        <v>0.85714299999999999</v>
+      </c>
+      <c r="G21">
+        <v>0.89156599999999997</v>
+      </c>
+      <c r="I21">
+        <v>0.84269700000000003</v>
+      </c>
+      <c r="J21">
+        <v>0.87951800000000002</v>
+      </c>
+      <c r="K21">
+        <v>0.83116900000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.87058800000000003</v>
-      </c>
-      <c r="B27">
-        <v>0.92405099999999996</v>
-      </c>
-      <c r="C27">
-        <v>0.94936699999999996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>0.971831</v>
-      </c>
-      <c r="B28">
-        <v>0.85714299999999999</v>
-      </c>
-      <c r="C28">
-        <v>0.89156599999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>0.87837799999999999</v>
-      </c>
-      <c r="B31">
-        <v>0.82716000000000001</v>
-      </c>
-      <c r="C31">
-        <v>0.87654299999999996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>0.88749999999999996</v>
-      </c>
-      <c r="B32">
-        <v>0.80519499999999999</v>
-      </c>
-      <c r="C32">
-        <v>0.83116900000000005</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>0.80487799999999998</v>
-      </c>
-      <c r="B33">
-        <v>0.91025599999999995</v>
-      </c>
-      <c r="C33">
-        <v>0.84523800000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>0.84</v>
-      </c>
-      <c r="B34">
-        <v>0.82716000000000001</v>
-      </c>
-      <c r="C34">
-        <v>0.85185200000000005</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>0.84269700000000003</v>
-      </c>
-      <c r="B35">
-        <v>0.87951800000000002</v>
-      </c>
-      <c r="C35">
-        <v>0.83116900000000005</v>
+        <f>AVERAGE(A17:C21)</f>
+        <v>0.88125000000000009</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E17:G21)</f>
+        <v>0.9136991333333333</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I17:K21)</f>
+        <v>0.84924753333333314</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <f>AVERAGE(A17:A35)</f>
-        <v>0.88073606666666671</v>
-      </c>
-      <c r="B36" s="1">
-        <f>AVERAGE(B17:B35)</f>
-        <v>0.88217973333333333</v>
-      </c>
-      <c r="C36" s="1">
-        <f>AVERAGE(C17:C35)</f>
-        <v>0.88128086666666638</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -971,7 +977,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C35"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1071,7 +1077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.78749999999999998</v>
       </c>
@@ -1081,8 +1087,26 @@
       <c r="C17">
         <v>0.75624999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>0.83720899999999998</v>
+      </c>
+      <c r="F17">
+        <v>0.90697700000000003</v>
+      </c>
+      <c r="G17">
+        <v>0.86206899999999997</v>
+      </c>
+      <c r="I17">
+        <v>0.72972999999999999</v>
+      </c>
+      <c r="J17">
+        <v>0.72972999999999999</v>
+      </c>
+      <c r="K17">
+        <v>0.63013699999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.81874999999999998</v>
       </c>
@@ -1092,8 +1116,26 @@
       <c r="C18">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>0.87341800000000003</v>
+      </c>
+      <c r="F18">
+        <v>0.82716000000000001</v>
+      </c>
+      <c r="G18">
+        <v>0.94285699999999995</v>
+      </c>
+      <c r="I18">
+        <v>0.765432</v>
+      </c>
+      <c r="J18">
+        <v>0.632911</v>
+      </c>
+      <c r="K18">
+        <v>0.68888899999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.78749999999999998</v>
       </c>
@@ -1103,8 +1145,26 @@
       <c r="C19">
         <v>0.77500000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>0.92592600000000003</v>
+      </c>
+      <c r="F19">
+        <v>0.90540500000000002</v>
+      </c>
+      <c r="G19">
+        <v>0.86585400000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.64556999999999998</v>
+      </c>
+      <c r="J19">
+        <v>0.62790699999999999</v>
+      </c>
+      <c r="K19">
+        <v>0.67948699999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.78125</v>
       </c>
@@ -1114,8 +1174,26 @@
       <c r="C20">
         <v>0.81874999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>0.91025599999999995</v>
+      </c>
+      <c r="F20">
+        <v>0.86666699999999997</v>
+      </c>
+      <c r="G20">
+        <v>0.86666699999999997</v>
+      </c>
+      <c r="I20">
+        <v>0.65853700000000004</v>
+      </c>
+      <c r="J20">
+        <v>0.77647100000000002</v>
+      </c>
+      <c r="K20">
+        <v>0.75714300000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.8125</v>
       </c>
@@ -1125,130 +1203,43 @@
       <c r="C21">
         <v>0.84375</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0.83720899999999998</v>
-      </c>
-      <c r="B24">
-        <v>0.90697700000000003</v>
-      </c>
-      <c r="C24">
-        <v>0.86206899999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>0.87341800000000003</v>
-      </c>
-      <c r="B25">
-        <v>0.82716000000000001</v>
-      </c>
-      <c r="C25">
-        <v>0.94285699999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>0.92592600000000003</v>
-      </c>
-      <c r="B26">
-        <v>0.90540500000000002</v>
-      </c>
-      <c r="C26">
-        <v>0.86585400000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>0.92105300000000001</v>
+      </c>
+      <c r="F21">
+        <v>0.94047599999999998</v>
+      </c>
+      <c r="G21">
+        <v>0.92957699999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="J21">
+        <v>0.763158</v>
+      </c>
+      <c r="K21">
+        <v>0.775281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.91025599999999995</v>
-      </c>
-      <c r="B27">
-        <v>0.86666699999999997</v>
-      </c>
-      <c r="C27">
-        <v>0.86666699999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>0.92105300000000001</v>
-      </c>
-      <c r="B28">
-        <v>0.94047599999999998</v>
-      </c>
-      <c r="C28">
-        <v>0.92957699999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>0.72972999999999999</v>
-      </c>
-      <c r="B31">
-        <v>0.72972999999999999</v>
-      </c>
-      <c r="C31">
-        <v>0.63013699999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>0.765432</v>
-      </c>
-      <c r="B32">
-        <v>0.632911</v>
-      </c>
-      <c r="C32">
-        <v>0.68888899999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>0.64556999999999998</v>
-      </c>
-      <c r="B33">
-        <v>0.62790699999999999</v>
-      </c>
-      <c r="C33">
-        <v>0.67948699999999995</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>0.65853700000000004</v>
-      </c>
-      <c r="B34">
-        <v>0.77647100000000002</v>
-      </c>
-      <c r="C34">
-        <v>0.75714300000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>0.71428599999999998</v>
-      </c>
-      <c r="B35">
-        <v>0.763158</v>
-      </c>
-      <c r="C35">
-        <v>0.775281</v>
+        <f>AVERAGE(A17:C21)</f>
+        <v>0.7979166666666665</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E17:G21)</f>
+        <v>0.89210473333333329</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I17:K21)</f>
+        <v>0.70497793333333325</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <f>AVERAGE(A17:A35)</f>
-        <v>0.79792780000000008</v>
-      </c>
-      <c r="B36" s="1">
-        <f>AVERAGE(B17:B35)</f>
-        <v>0.79762413333333337</v>
-      </c>
-      <c r="C36" s="1">
-        <f>AVERAGE(C17:C35)</f>
-        <v>0.79944739999999981</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1258,15 +1249,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02381B48-911C-44BE-A8BD-0D81F9F91B66}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C35"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1277,7 +1268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.58125000000000004</v>
       </c>
@@ -1288,7 +1279,7 @@
         <v>0.66249999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.60624999999999996</v>
       </c>
@@ -1299,7 +1290,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.73124999999999996</v>
       </c>
@@ -1310,7 +1301,7 @@
         <v>0.61875000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.65</v>
       </c>
@@ -1321,7 +1312,7 @@
         <v>0.66874999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.65625</v>
       </c>
@@ -1332,7 +1323,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1342,8 +1333,26 @@
       <c r="C16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.59375</v>
       </c>
@@ -1353,8 +1362,26 @@
       <c r="C17">
         <v>0.72499999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>0.61643800000000004</v>
+      </c>
+      <c r="F17">
+        <v>0.69411800000000001</v>
+      </c>
+      <c r="G17">
+        <v>0.65432100000000004</v>
+      </c>
+      <c r="I17">
+        <v>0.57471300000000003</v>
+      </c>
+      <c r="J17">
+        <v>0.54666700000000001</v>
+      </c>
+      <c r="K17">
+        <v>0.79746799999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.68125000000000002</v>
       </c>
@@ -1364,8 +1391,26 @@
       <c r="C18">
         <v>0.55625000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>0.70512799999999998</v>
+      </c>
+      <c r="F18">
+        <v>0.64634100000000005</v>
+      </c>
+      <c r="G18">
+        <v>0.56626500000000002</v>
+      </c>
+      <c r="I18">
+        <v>0.65853700000000004</v>
+      </c>
+      <c r="J18">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="K18">
+        <v>0.54545500000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.66249999999999998</v>
       </c>
@@ -1375,8 +1420,26 @@
       <c r="C19">
         <v>0.64375000000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="F19">
+        <v>0.64102599999999998</v>
+      </c>
+      <c r="G19">
+        <v>0.73239399999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.65714300000000003</v>
+      </c>
+      <c r="J19">
+        <v>0.59756100000000001</v>
+      </c>
+      <c r="K19">
+        <v>0.57303400000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.65</v>
       </c>
@@ -1386,8 +1449,26 @@
       <c r="C20">
         <v>0.61875000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>0.644737</v>
+      </c>
+      <c r="F20">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G20">
+        <v>0.62162200000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.65476199999999996</v>
+      </c>
+      <c r="J20">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="K20">
+        <v>0.61627900000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.59375</v>
       </c>
@@ -1397,130 +1478,43 @@
       <c r="C21">
         <v>0.66249999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0.61643800000000004</v>
-      </c>
-      <c r="B24">
+      <c r="E21">
+        <v>0.53012000000000004</v>
+      </c>
+      <c r="F21">
+        <v>0.70666700000000005</v>
+      </c>
+      <c r="G21">
+        <v>0.63736300000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.66233799999999998</v>
+      </c>
+      <c r="J21">
         <v>0.69411800000000001</v>
       </c>
-      <c r="C24">
-        <v>0.65432100000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>0.70512799999999998</v>
-      </c>
-      <c r="B25">
-        <v>0.64634100000000005</v>
-      </c>
-      <c r="C25">
-        <v>0.56626500000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="B26">
-        <v>0.64102599999999998</v>
-      </c>
-      <c r="C26">
-        <v>0.73239399999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>0.69565200000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.644737</v>
-      </c>
-      <c r="B27">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C27">
-        <v>0.62162200000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>0.53012000000000004</v>
-      </c>
-      <c r="B28">
-        <v>0.70666700000000005</v>
-      </c>
-      <c r="C28">
-        <v>0.63736300000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>0.57471300000000003</v>
-      </c>
-      <c r="B31">
-        <v>0.54666700000000001</v>
-      </c>
-      <c r="C31">
-        <v>0.79746799999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>0.65853700000000004</v>
-      </c>
-      <c r="B32">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="C32">
-        <v>0.54545500000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>0.65714300000000003</v>
-      </c>
-      <c r="B33">
-        <v>0.59756100000000001</v>
-      </c>
-      <c r="C33">
-        <v>0.57303400000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>0.65476199999999996</v>
-      </c>
-      <c r="B34">
-        <v>0.66249999999999998</v>
-      </c>
-      <c r="C34">
-        <v>0.61627900000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>0.66233799999999998</v>
-      </c>
-      <c r="B35">
-        <v>0.69411800000000001</v>
-      </c>
-      <c r="C35">
-        <v>0.69565200000000005</v>
+        <f>AVERAGE(A17:C21)</f>
+        <v>0.63958333333333328</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E17:G21)</f>
+        <v>0.64088046666666676</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I17:K21)</f>
+        <v>0.64019293333333327</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <f>AVERAGE(A17:A35)</f>
-        <v>0.63678886666666668</v>
-      </c>
-      <c r="B36" s="1">
-        <f>AVERAGE(B17:B35)</f>
-        <v>0.64079433333333335</v>
-      </c>
-      <c r="C36" s="1">
-        <f>AVERAGE(C17:C35)</f>
-        <v>0.6430735333333335</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1530,15 +1524,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEC7F0A-6E4E-4330-BAA4-9C79BF602398}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:K16"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1549,7 +1543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.61250000000000004</v>
       </c>
@@ -1560,7 +1554,7 @@
         <v>0.54374999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.56874999999999998</v>
       </c>
@@ -1571,7 +1565,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.54374999999999996</v>
       </c>
@@ -1582,7 +1576,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.50624999999999998</v>
       </c>
@@ -1593,7 +1587,7 @@
         <v>0.61875000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.59375</v>
       </c>
@@ -1604,7 +1598,7 @@
         <v>0.48749999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>AVERAGE(A2:A6)</f>
         <v>0.56499999999999995</v>
@@ -1619,7 +1613,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1629,8 +1623,26 @@
       <c r="C16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.55625000000000002</v>
       </c>
@@ -1640,8 +1652,26 @@
       <c r="C17">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>0.38888899999999998</v>
+      </c>
+      <c r="F17">
+        <v>0.56756799999999996</v>
+      </c>
+      <c r="G17">
+        <v>0.54054100000000005</v>
+      </c>
+      <c r="I17">
+        <v>0.77142900000000003</v>
+      </c>
+      <c r="J17">
+        <v>0.53488400000000003</v>
+      </c>
+      <c r="K17">
+        <v>0.581395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.57499999999999996</v>
       </c>
@@ -1651,8 +1681,26 @@
       <c r="C18">
         <v>0.59375</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>0.50602400000000003</v>
+      </c>
+      <c r="F18">
+        <v>0.467532</v>
+      </c>
+      <c r="G18">
+        <v>0.50684899999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.64935100000000001</v>
+      </c>
+      <c r="J18">
+        <v>0.60241</v>
+      </c>
+      <c r="K18">
+        <v>0.66666700000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.52500000000000002</v>
       </c>
@@ -1662,8 +1710,26 @@
       <c r="C19">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>0.41558400000000001</v>
+      </c>
+      <c r="F19">
+        <v>0.52439000000000002</v>
+      </c>
+      <c r="G19">
+        <v>0.48148099999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.62650600000000001</v>
+      </c>
+      <c r="J19">
+        <v>0.67948699999999995</v>
+      </c>
+      <c r="K19">
+        <v>0.62025300000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.55625000000000002</v>
       </c>
@@ -1673,8 +1739,26 @@
       <c r="C20">
         <v>0.53749999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>0.56527099999999997</v>
+      </c>
+      <c r="F20">
+        <v>0.36904799999999999</v>
+      </c>
+      <c r="G20">
+        <v>0.488095</v>
+      </c>
+      <c r="I20">
+        <v>0.54945100000000002</v>
+      </c>
+      <c r="J20">
+        <v>0.631579</v>
+      </c>
+      <c r="K20">
+        <v>0.59210499999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.56874999999999998</v>
       </c>
@@ -1684,130 +1768,43 @@
       <c r="C21">
         <v>0.56874999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>0.38888899999999998</v>
-      </c>
-      <c r="B25">
-        <v>0.56756799999999996</v>
-      </c>
-      <c r="C25">
-        <v>0.54054100000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>0.50602400000000003</v>
-      </c>
-      <c r="B26">
-        <v>0.467532</v>
-      </c>
-      <c r="C26">
-        <v>0.50684899999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>0.469136</v>
+      </c>
+      <c r="F21">
+        <v>0.46988000000000002</v>
+      </c>
+      <c r="G21">
+        <v>0.42045500000000002</v>
+      </c>
+      <c r="I21">
+        <v>0.67088599999999998</v>
+      </c>
+      <c r="J21">
+        <v>0.72727299999999995</v>
+      </c>
+      <c r="K21">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.41558400000000001</v>
-      </c>
-      <c r="B27">
-        <v>0.52439000000000002</v>
-      </c>
-      <c r="C27">
-        <v>0.48148099999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>0.56527099999999997</v>
-      </c>
-      <c r="B28">
-        <v>0.36904799999999999</v>
-      </c>
-      <c r="C28">
-        <v>0.488095</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>0.469136</v>
-      </c>
-      <c r="B29">
-        <v>0.46988000000000002</v>
-      </c>
-      <c r="C29">
-        <v>0.42045500000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>0.77142900000000003</v>
-      </c>
-      <c r="B32">
-        <v>0.53488400000000003</v>
-      </c>
-      <c r="C32">
-        <v>0.581395</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>0.64935100000000001</v>
-      </c>
-      <c r="B33">
-        <v>0.60241</v>
-      </c>
-      <c r="C33">
-        <v>0.66666700000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>0.62650600000000001</v>
-      </c>
-      <c r="B34">
-        <v>0.67948699999999995</v>
-      </c>
-      <c r="C34">
-        <v>0.62025300000000005</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>0.54945100000000002</v>
-      </c>
-      <c r="B35">
-        <v>0.631579</v>
-      </c>
-      <c r="C35">
-        <v>0.59210499999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>0.67088599999999998</v>
-      </c>
-      <c r="B36">
-        <v>0.72727299999999995</v>
-      </c>
-      <c r="C36">
-        <v>0.75</v>
+        <f>AVERAGE(A17:C21)</f>
+        <v>0.55791666666666673</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E17:G21)</f>
+        <v>0.47871619999999998</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I17:K21)</f>
+        <v>0.64357840000000011</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <f>AVERAGE(A17:A36)</f>
-        <v>0.55958513333333337</v>
-      </c>
-      <c r="B37" s="1">
-        <f>AVERAGE(B17:B36)</f>
-        <v>0.55660339999999997</v>
-      </c>
-      <c r="C37" s="1">
-        <f>AVERAGE(C17:C36)</f>
-        <v>0.5640227333333333</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1819,7 +1816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF693018-39DF-46F6-B676-307ECC793638}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
